--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20985" windowHeight="8025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="userdata" sheetId="1" r:id="rId1"/>
+    <sheet name="Bookdata" sheetId="2" r:id="rId2"/>
+    <sheet name="HRM" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:U25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>UserName</t>
   </si>
@@ -49,6 +52,39 @@
   </si>
   <si>
     <t>darshan123</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>AuthorName</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CoreJava</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Mukesh</t>
+  </si>
+  <si>
+    <t>TestNg</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -409,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -462,4 +498,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>800</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -12,7 +12,6 @@
     <sheet name="HRM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:U25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>UserName</t>
   </si>
@@ -85,13 +84,25 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>raj123</t>
+  </si>
+  <si>
+    <t>Sumit</t>
+  </si>
+  <si>
+    <t>sumit123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +128,21 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,11 +184,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -577,27 +607,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
